--- a/top100.xlsx
+++ b/top100.xlsx
@@ -1,31 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ale/workspace/Rank_top100/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="3560" windowWidth="23280" windowHeight="10360"/>
+    <workbookView windowWidth="23895" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="1" r:id="rId1"/>
     <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390">
+  <si>
+    <t>排名</t>
+  </si>
   <si>
     <t>易观</t>
   </si>
@@ -54,7 +47,7 @@
     <t>开心消消乐</t>
   </si>
   <si>
-    <t>绝地求生:刺激战场</t>
+    <t>绝地求生：刺激战场</t>
   </si>
   <si>
     <t>天天酷跑-极速前进4官方手游</t>
@@ -75,9 +68,6 @@
     <t>波克捕鱼-千炮版</t>
   </si>
   <si>
-    <t>绝地求生：刺激战场</t>
-  </si>
-  <si>
     <t>迷你世界</t>
   </si>
   <si>
@@ -372,9 +362,6 @@
     <t>诛仙-萌宠配对</t>
   </si>
   <si>
-    <t>绝地求生 刺激战场</t>
-  </si>
-  <si>
     <t>神庙逃亡2</t>
   </si>
   <si>
@@ -1198,20 +1185,19 @@
   </si>
   <si>
     <t>征途2</t>
-  </si>
-  <si>
-    <t>排名</t>
-    <rPh sb="0" eb="1">
-      <t>pai'ming</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1223,20 +1209,352 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <charset val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1244,9 +1562,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1254,10 +1814,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1519,118 +2126,117 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.16190476190476" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.16190476190476" style="1"/>
+    <col min="2" max="2" width="18.5047619047619" style="1" customWidth="1"/>
     <col min="3" max="3" width="38" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="1"/>
+    <col min="4" max="4" width="24.8285714285714" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.8285714285714" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.16190476190476" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>391</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
@@ -1642,10 +2248,10 @@
         <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1653,7 +2259,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>21</v>
@@ -1665,7 +2271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1685,7 +2291,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1705,7 +2311,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1725,7 +2331,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1745,7 +2351,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1765,7 +2371,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1785,7 +2391,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1805,7 +2411,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1825,7 +2431,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1845,7 +2451,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1865,7 +2471,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1885,7 +2491,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1905,7 +2511,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1925,7 +2531,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1945,7 +2551,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1956,7 +2562,7 @@
         <v>84</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>85</v>
@@ -1965,12 +2571,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>87</v>
@@ -1985,7 +2591,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2005,7 +2611,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2025,7 +2631,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2045,7 +2651,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2065,7 +2671,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2085,7 +2691,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2105,7 +2711,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2125,7 +2731,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2141,11 +2747,11 @@
       <c r="E30" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F30" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2153,64 +2759,64 @@
         <v>98</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>88</v>
@@ -2219,38 +2825,38 @@
         <v>84</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>83</v>
@@ -2259,93 +2865,93 @@
         <v>42</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2353,44 +2959,44 @@
         <v>106</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>63</v>
@@ -2399,1211 +3005,1210 @@
         <v>64</v>
       </c>
       <c r="E43" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D48" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="E51" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>103</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D54" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="F56" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="F57" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="F58" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="F59" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D61" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="F61" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="F62" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D63" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="F63" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C65" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="E66" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="F66" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="F67" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="E68" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="F68" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D69" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="F69" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="F70" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D72" s="2" t="s">
+      <c r="E72" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>279</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="E73" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="F73" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="F73" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="F74" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F74" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D75" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="F75" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C76" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="E76" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="F76" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="F76" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C77" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="F77" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="F77" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C78" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="F78" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F78" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="E79" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="F79" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="F79" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="E80" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="F80" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="F81" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="F81" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C82" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="E82" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="F82" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="F82" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="E83" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="F83" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="E84" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>331</v>
-      </c>
       <c r="F84" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="F85" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F85" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="E86" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="F86" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="E87" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>343</v>
-      </c>
       <c r="F87" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D88" s="2" t="s">
+      <c r="E88" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="F88" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="F88" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="D89" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="E89" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="F89" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F89" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D90" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>354</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D91" s="2" t="s">
+      <c r="E91" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="F91" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="F92" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="F92" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E93" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E94" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="E95" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="F95" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="F95" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E96" s="2" t="s">
+      <c r="F96" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="F96" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="E97" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="F97" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E98" s="2" t="s">
+      <c r="F98" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="F98" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="E99" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="F99" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="F99" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C100" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="F100" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="F100" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C101" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="F101" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="F101" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="102" spans="3:3">
       <c r="C102" s="2"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="103" spans="3:3">
       <c r="C103" s="2"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="104" spans="3:3">
       <c r="C104" s="2"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="105" spans="3:3">
       <c r="C105" s="2"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="106" spans="3:3">
       <c r="C106" s="2"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="107" spans="3:3">
       <c r="C107" s="2"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="108" spans="3:3">
       <c r="C108" s="2"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="109" spans="3:3">
       <c r="C109" s="2"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="110" spans="3:3">
       <c r="C110" s="2"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="111" spans="3:3">
       <c r="C111" s="2"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="3:3">
       <c r="C112" s="2"/>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="113" spans="3:3">
       <c r="C113" s="2"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="114" spans="3:3">
       <c r="C114" s="2"/>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="115" spans="3:3">
       <c r="C115" s="2"/>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="116" spans="3:3">
       <c r="C116" s="2"/>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="117" spans="3:3">
       <c r="C117" s="2"/>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="118" spans="3:3">
       <c r="C118" s="2"/>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="119" spans="3:3">
       <c r="C119" s="2"/>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="120" spans="3:3">
       <c r="C120" s="2"/>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="121" spans="3:3">
       <c r="C121" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.3" right="0.3" top="0.60972222222222205" bottom="0.36944444444444402" header="0.1" footer="0.1"/>
+  <pageMargins left="0.3" right="0.3" top="0.609027777777778" bottom="0.36875" header="0.1" footer="0.1"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0">
+  <headerFooter alignWithMargins="0" scaleWithDoc="0">
     <oddHeader>&amp;C&amp;P</oddHeader>
     <oddFooter>&amp;C&amp;F</oddFooter>
   </headerFooter>
@@ -3611,14 +4216,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>